--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2377787.857880503</v>
+        <v>2377109.676572971</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428237</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V11" t="n">
-        <v>108.083995342269</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W11" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>23.93825431390919</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.38249396128572</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332426</v>
+        <v>20.73635203332423</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394762</v>
+        <v>79.15072440617166</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801256</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W12" t="n">
-        <v>72.4930136896219</v>
+        <v>72.49301368962188</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208092</v>
+        <v>23.10134455208089</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663593</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278798</v>
+        <v>9.00327449327877</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393258</v>
+        <v>41.14309824393256</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521115</v>
+        <v>29.52954681521112</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269436</v>
+        <v>94.44472612269433</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706022</v>
+        <v>50.89744529706019</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194564</v>
+        <v>96.09913720194561</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085284</v>
+        <v>27.70788552085281</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677873</v>
+        <v>22.9297029267787</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>113.5870392834472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7111663740566</v>
+        <v>19.08349558367308</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>33.0623814045185</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428237</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>55.93811835407746</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.7111663740566</v>
+        <v>89.06762571564884</v>
       </c>
       <c r="C15" t="n">
-        <v>118.5494263667593</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332423</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="U15" t="n">
         <v>43.0161241739476</v>
@@ -1746,7 +1746,7 @@
         <v>46.43735102801253</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962188</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X15" t="n">
         <v>23.10134455208089</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>108.0839953422691</v>
       </c>
       <c r="C18" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319851</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>56.14797543907054</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258606</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>108.083995342269</v>
+        <v>108.0839953422691</v>
       </c>
       <c r="E21" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258606</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="U24" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>108.0839953422693</v>
+        <v>108.083995342269</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>161.1666563115506</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2849133148961</v>
+        <v>137.284913314896</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759445</v>
       </c>
       <c r="E26" t="n">
         <v>158.5583279953534</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737307</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565834</v>
       </c>
       <c r="H26" t="n">
         <v>133.991585058847</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562549</v>
+        <v>14.35336722562544</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389364</v>
+        <v>9.498608495389307</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518446</v>
+        <v>37.2291041751844</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428692</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594841</v>
       </c>
       <c r="X26" t="n">
         <v>146.8621302284234</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521671</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.2526615313154</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431227</v>
+        <v>2.02733785443117</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276940613373</v>
+        <v>24.30710999505454</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911953</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072888</v>
+        <v>53.78399951072882</v>
       </c>
       <c r="X27" t="n">
-        <v>90.21501404912</v>
+        <v>4.392330373187832</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4637020677429</v>
+        <v>10.46370206774284</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503956</v>
+        <v>22.4340840650395</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631813</v>
+        <v>10.82053263631807</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380133</v>
+        <v>75.73571194380128</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816719</v>
+        <v>32.18843111816713</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305261</v>
+        <v>77.39012302305255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959813</v>
+        <v>8.998871341959756</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885703</v>
+        <v>4.220688747885646</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148486</v>
+        <v>27.67799807148487</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>113.8342802193507</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.947921920714</v>
+        <v>204.3623601931833</v>
       </c>
       <c r="U30" t="n">
         <v>24.30710999505462</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911956</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.7839995107289</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>4.392330373187917</v>
@@ -3032,13 +3032,13 @@
         <v>137.2849133148961</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759445</v>
       </c>
       <c r="E32" t="n">
         <v>158.5583279953534</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737307</v>
       </c>
       <c r="G32" t="n">
         <v>205.9069232565835</v>
@@ -3047,7 +3047,7 @@
         <v>133.991585058847</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562549</v>
+        <v>14.35336722562547</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389364</v>
+        <v>9.498608495389336</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518446</v>
+        <v>37.22910417518443</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428693</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594841</v>
       </c>
       <c r="X32" t="n">
         <v>146.8621302284234</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521671</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>67.96953259395525</v>
       </c>
       <c r="G33" t="n">
-        <v>20.9578816028775</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431227</v>
+        <v>2.027337854431199</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3071099950546</v>
+        <v>24.30710999505457</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3171,10 +3171,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187889</v>
+        <v>4.39233037318786</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.4637020677429</v>
+        <v>10.46370206774287</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503956</v>
+        <v>22.43408406503953</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631813</v>
+        <v>10.8205326363181</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380133</v>
+        <v>75.73571194380131</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816719</v>
+        <v>32.18843111816716</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305261</v>
+        <v>77.39012302305258</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959813</v>
+        <v>8.998871341959784</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885703</v>
+        <v>4.220688747885674</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328296</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726919</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G35" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H35" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618539</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522838</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020769</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682256</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>199.430089413373</v>
       </c>
       <c r="W36" t="n">
-        <v>248.9353966916613</v>
+        <v>18.39337278806727</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113972</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039112</v>
+        <v>41.999496300391</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.776029588889</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922345</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328296</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726919</v>
+        <v>123.1677012726918</v>
       </c>
       <c r="F38" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G38" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H38" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618539</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522838</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020769</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682256</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.4715035057618</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>69.26523679591322</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>124.6289581343043</v>
+        <v>18.39337278806727</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113972</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039112</v>
+        <v>41.999496300391</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.4886582400657</v>
+        <v>133.4886582400658</v>
       </c>
       <c r="C41" t="n">
-        <v>109.6069152434112</v>
+        <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.1735775044597</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E41" t="n">
         <v>130.8803299238686</v>
@@ -3752,10 +3752,10 @@
         <v>162.6006675022459</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2289251850986</v>
+        <v>178.2289251850987</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3135869873621</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699581</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138443</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799931</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X41" t="n">
-        <v>119.1841321569385</v>
+        <v>119.1841321569386</v>
       </c>
       <c r="Y41" t="n">
         <v>141.6869852806823</v>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>159.2652086390494</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.65311536006472</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763466421</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231646</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V43" t="n">
-        <v>4.510433046682323</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W43" t="n">
-        <v>49.71212495156774</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>133.4886582400657</v>
       </c>
       <c r="C44" t="n">
-        <v>109.6069152434119</v>
+        <v>109.6069152434112</v>
       </c>
       <c r="D44" t="n">
-        <v>97.1735775044597</v>
+        <v>97.17357750445964</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238685</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6006675022459</v>
+        <v>162.6006675022464</v>
       </c>
       <c r="G44" t="n">
         <v>178.2289251850986</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699581</v>
+        <v>9.551106103699524</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138443</v>
+        <v>80.28120147138438</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799931</v>
+        <v>97.29788168799925</v>
       </c>
       <c r="X44" t="n">
         <v>119.1841321569385</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162.6360967154797</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>147.6804680254619</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763466421</v>
+        <v>0.05033877763460737</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924401</v>
+        <v>26.10600143924395</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231646</v>
+        <v>48.05771387231641</v>
       </c>
       <c r="V46" t="n">
-        <v>4.510433046682323</v>
+        <v>4.510433046682266</v>
       </c>
       <c r="W46" t="n">
-        <v>49.71212495156774</v>
+        <v>49.71212495156769</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5021,67 +5021,67 @@
         <v>133.7675664150323</v>
       </c>
       <c r="D11" t="n">
-        <v>9.816893309924533</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="E11" t="n">
-        <v>9.816893309924533</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="F11" t="n">
-        <v>9.816893309924533</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="G11" t="n">
-        <v>9.816893309924533</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J11" t="n">
-        <v>126.9687252395235</v>
+        <v>80.773758041825</v>
       </c>
       <c r="K11" t="n">
-        <v>126.9687252395235</v>
+        <v>202.2578127521411</v>
       </c>
       <c r="L11" t="n">
-        <v>175.355854490735</v>
+        <v>250.6449420033526</v>
       </c>
       <c r="M11" t="n">
-        <v>296.8399092010511</v>
+        <v>333.3609061815156</v>
       </c>
       <c r="N11" t="n">
-        <v>374.0518681395004</v>
+        <v>454.8449608918318</v>
       </c>
       <c r="O11" t="n">
-        <v>410.0515727438953</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="P11" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="T11" t="n">
-        <v>490.8446654962266</v>
+        <v>462.352117340386</v>
       </c>
       <c r="U11" t="n">
-        <v>490.8446654962266</v>
+        <v>405.8489674877824</v>
       </c>
       <c r="V11" t="n">
-        <v>381.6689126252478</v>
+        <v>281.8982943826746</v>
       </c>
       <c r="W11" t="n">
-        <v>257.7182395201401</v>
+        <v>157.9476212775668</v>
       </c>
       <c r="X11" t="n">
-        <v>257.7182395201401</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="Y11" t="n">
         <v>133.7675664150323</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242.0169930872277</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C12" t="n">
-        <v>242.0169930872277</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D12" t="n">
-        <v>242.0169930872277</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E12" t="n">
-        <v>242.0169930872277</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K12" t="n">
-        <v>48.69249843149181</v>
+        <v>44.61303478914427</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2520893996962</v>
+        <v>163.1726257573486</v>
       </c>
       <c r="M12" t="n">
-        <v>288.7361441100122</v>
+        <v>284.6566804676647</v>
       </c>
       <c r="N12" t="n">
-        <v>288.7361441100122</v>
+        <v>406.1407351779808</v>
       </c>
       <c r="O12" t="n">
-        <v>410.2201988203283</v>
+        <v>406.1407351779808</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962266</v>
+        <v>484.6416242957305</v>
       </c>
       <c r="R12" t="n">
-        <v>490.8446654962266</v>
+        <v>484.6416242957305</v>
       </c>
       <c r="S12" t="n">
-        <v>479.3471968484632</v>
+        <v>360.6909511906227</v>
       </c>
       <c r="T12" t="n">
-        <v>458.4013867137922</v>
+        <v>339.7451410559518</v>
       </c>
       <c r="U12" t="n">
-        <v>414.9507562350573</v>
+        <v>259.7949143830512</v>
       </c>
       <c r="V12" t="n">
-        <v>368.0443410552466</v>
+        <v>135.8442412779434</v>
       </c>
       <c r="W12" t="n">
-        <v>294.8190747020932</v>
+        <v>62.61897492478998</v>
       </c>
       <c r="X12" t="n">
-        <v>271.4843832353448</v>
+        <v>39.28428345804161</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.0169930872277</v>
+        <v>9.816893309924536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3009480202406</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3009480202406</v>
+        <v>75.63745296972689</v>
       </c>
       <c r="N13" t="n">
-        <v>197.1215076800434</v>
+        <v>75.63745296972689</v>
       </c>
       <c r="O13" t="n">
-        <v>197.1215076800434</v>
+        <v>197.121507680043</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903594</v>
+        <v>318.6055623903591</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894744</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295968</v>
+        <v>376.2325924295966</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347154</v>
+        <v>334.6739073347152</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688455</v>
+        <v>304.8460822688454</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135987</v>
+        <v>209.4473690135986</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074773</v>
+        <v>158.0358081074772</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995643</v>
+        <v>60.96597254995637</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757982</v>
+        <v>32.97820939757979</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.4526226347332</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="C14" t="n">
-        <v>372.4526226347332</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="D14" t="n">
-        <v>372.4526226347332</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="E14" t="n">
-        <v>248.5019495296255</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150323</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7675664150323</v>
+        <v>29.09315147525088</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J14" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K14" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="L14" t="n">
-        <v>131.3009480202406</v>
+        <v>87.94863295898226</v>
       </c>
       <c r="M14" t="n">
-        <v>214.0169121984036</v>
+        <v>170.6645971371452</v>
       </c>
       <c r="N14" t="n">
-        <v>291.2288711368529</v>
+        <v>247.8765560755945</v>
       </c>
       <c r="O14" t="n">
-        <v>327.2285757412478</v>
+        <v>369.3606107859106</v>
       </c>
       <c r="P14" t="n">
-        <v>448.7126304515639</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431776</v>
+        <v>457.4483206431778</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873368</v>
+        <v>457.4483206431778</v>
       </c>
       <c r="U14" t="n">
-        <v>372.4526226347332</v>
+        <v>400.9451707905743</v>
       </c>
       <c r="V14" t="n">
-        <v>372.4526226347332</v>
+        <v>400.9451707905743</v>
       </c>
       <c r="W14" t="n">
-        <v>372.4526226347332</v>
+        <v>276.9944976854664</v>
       </c>
       <c r="X14" t="n">
-        <v>372.4526226347332</v>
+        <v>153.0438245803587</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.4526226347332</v>
+        <v>29.09315147525088</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.5637886298834</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K15" t="n">
-        <v>44.61303478914422</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1726257573486</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="M15" t="n">
-        <v>284.6566804676646</v>
+        <v>288.7361441100122</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407351779807</v>
+        <v>288.7361441100122</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779807</v>
+        <v>410.2201988203283</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R15" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="S15" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="T15" t="n">
-        <v>469.8988553615557</v>
+        <v>366.893992391119</v>
       </c>
       <c r="U15" t="n">
-        <v>426.4482248828207</v>
+        <v>323.443361912384</v>
       </c>
       <c r="V15" t="n">
-        <v>379.54180970301</v>
+        <v>276.5369467325734</v>
       </c>
       <c r="W15" t="n">
-        <v>306.3165433498566</v>
+        <v>152.5862736274656</v>
       </c>
       <c r="X15" t="n">
-        <v>282.9818518831082</v>
+        <v>129.2515821607172</v>
       </c>
       <c r="Y15" t="n">
-        <v>253.5144617349912</v>
+        <v>99.78419201260014</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.24559604012194</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C16" t="n">
-        <v>26.24559604012194</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D16" t="n">
-        <v>26.24559604012194</v>
+        <v>58.35552375023676</v>
       </c>
       <c r="E16" t="n">
-        <v>26.24559604012194</v>
+        <v>110.3655981386498</v>
       </c>
       <c r="F16" t="n">
-        <v>26.24559604012194</v>
+        <v>165.0974389309035</v>
       </c>
       <c r="G16" t="n">
-        <v>26.24559604012194</v>
+        <v>165.0974389309035</v>
       </c>
       <c r="H16" t="n">
-        <v>26.24559604012194</v>
+        <v>165.0974389309035</v>
       </c>
       <c r="I16" t="n">
-        <v>26.24559604012194</v>
+        <v>165.0974389309035</v>
       </c>
       <c r="J16" t="n">
-        <v>99.81270194988757</v>
+        <v>238.6645448406691</v>
       </c>
       <c r="K16" t="n">
-        <v>99.81270194988757</v>
+        <v>263.842754379158</v>
       </c>
       <c r="L16" t="n">
-        <v>197.1215076800431</v>
+        <v>263.842754379158</v>
       </c>
       <c r="M16" t="n">
-        <v>197.1215076800431</v>
+        <v>263.842754379158</v>
       </c>
       <c r="N16" t="n">
-        <v>197.1215076800431</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="O16" t="n">
-        <v>318.6055623903591</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903591</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="Q16" t="n">
         <v>385.3268090894741</v>
@@ -5479,7 +5479,7 @@
         <v>32.97820939757979</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154745</v>
+        <v>317.4102657154747</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633673</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203021</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111674</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F17" t="n">
         <v>135.5209245733686</v>
@@ -5507,58 +5507,58 @@
         <v>36.34803106400226</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924533</v>
+        <v>131.3009480202406</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924533</v>
+        <v>246.5299085240079</v>
       </c>
       <c r="L17" t="n">
-        <v>60.96139577618335</v>
+        <v>294.9170377752194</v>
       </c>
       <c r="M17" t="n">
-        <v>143.6773599543463</v>
+        <v>377.6330019533824</v>
       </c>
       <c r="N17" t="n">
-        <v>265.1614146646624</v>
+        <v>454.8449608918318</v>
       </c>
       <c r="O17" t="n">
-        <v>301.1611192690574</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="P17" t="n">
-        <v>301.1611192690574</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.1611192690574</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R17" t="n">
-        <v>301.1611192690574</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111751</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471767</v>
+        <v>490.6088666471769</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227584</v>
+        <v>473.1845019227587</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923409</v>
+        <v>433.6528134923412</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914751</v>
+        <v>371.3909703914753</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>310.178865684987</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C18" t="n">
-        <v>186.2281925798792</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D18" t="n">
-        <v>186.2281925798792</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E18" t="n">
-        <v>186.2281925798792</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F18" t="n">
-        <v>62.27751947477151</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G18" t="n">
-        <v>62.27751947477151</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H18" t="n">
-        <v>62.27751947477151</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I18" t="n">
-        <v>62.27751947477151</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K18" t="n">
-        <v>48.69249843149181</v>
+        <v>44.61303478914427</v>
       </c>
       <c r="L18" t="n">
-        <v>48.69249843149181</v>
+        <v>163.1726257573486</v>
       </c>
       <c r="M18" t="n">
-        <v>170.1765531418079</v>
+        <v>284.6566804676647</v>
       </c>
       <c r="N18" t="n">
-        <v>291.660607852124</v>
+        <v>284.6566804676647</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779807</v>
+        <v>406.1407351779808</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R18" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="S18" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="T18" t="n">
-        <v>434.1295387900947</v>
+        <v>242.9433192860112</v>
       </c>
       <c r="U18" t="n">
-        <v>434.1295387900947</v>
+        <v>242.9433192860112</v>
       </c>
       <c r="V18" t="n">
-        <v>434.1295387900947</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="W18" t="n">
-        <v>434.1295387900947</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="X18" t="n">
-        <v>310.178865684987</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="Y18" t="n">
-        <v>310.178865684987</v>
+        <v>118.9926461809035</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="L19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="M19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="N19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="O19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="P19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="Q19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="R19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="S19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="T19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="U19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="V19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="W19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="X19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="Y19" t="n">
-        <v>490.8446654962266</v>
+        <v>9.816893309924536</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154741</v>
+        <v>317.4102657154751</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633669</v>
+        <v>287.552533763368</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203018</v>
+        <v>270.2537288203028</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111673</v>
+        <v>218.9076992111681</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733686</v>
+        <v>135.5209245733694</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400226</v>
+        <v>36.34803106400221</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K20" t="n">
-        <v>131.3009480202406</v>
+        <v>32.60718627157409</v>
       </c>
       <c r="L20" t="n">
-        <v>179.6880772714521</v>
+        <v>80.99431552278561</v>
       </c>
       <c r="M20" t="n">
-        <v>262.4040414496151</v>
+        <v>163.7102797009486</v>
       </c>
       <c r="N20" t="n">
-        <v>339.6160003880644</v>
+        <v>240.9222386393979</v>
       </c>
       <c r="O20" t="n">
-        <v>398.4059979541089</v>
+        <v>276.9219432437929</v>
       </c>
       <c r="P20" t="n">
-        <v>398.4059979541089</v>
+        <v>276.9219432437929</v>
       </c>
       <c r="Q20" t="n">
-        <v>398.4059979541089</v>
+        <v>276.9219432437929</v>
       </c>
       <c r="R20" t="n">
-        <v>398.4059979541089</v>
+        <v>398.405997954109</v>
       </c>
       <c r="S20" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471765</v>
+        <v>490.608866647177</v>
       </c>
       <c r="W20" t="n">
-        <v>473.184501922758</v>
+        <v>473.1845019227588</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923406</v>
+        <v>433.6528134923414</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914747</v>
+        <v>371.3909703914756</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>242.9433192860111</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="C21" t="n">
-        <v>242.9433192860111</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="D21" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924533</v>
+        <v>41.6885710470325</v>
       </c>
       <c r="L21" t="n">
-        <v>41.68857104703248</v>
+        <v>41.6885710470325</v>
       </c>
       <c r="M21" t="n">
         <v>163.1726257573486</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676646</v>
+        <v>284.6566804676647</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779807</v>
+        <v>406.1407351779808</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.8446654962266</v>
+        <v>490.8446654962268</v>
       </c>
       <c r="R21" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="S21" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="T21" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="U21" t="n">
-        <v>490.8446654962266</v>
+        <v>366.893992391119</v>
       </c>
       <c r="V21" t="n">
-        <v>490.8446654962266</v>
+        <v>242.9433192860112</v>
       </c>
       <c r="W21" t="n">
-        <v>490.8446654962266</v>
+        <v>242.9433192860112</v>
       </c>
       <c r="X21" t="n">
-        <v>366.8939923911188</v>
+        <v>118.9926461809035</v>
       </c>
       <c r="Y21" t="n">
-        <v>366.8939923911188</v>
+        <v>118.9926461809035</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924533</v>
+        <v>9.816893309924536</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154758</v>
+        <v>317.4102657154746</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633686</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203034</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111687</v>
+        <v>218.9076992111672</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733699</v>
+        <v>135.5209245733685</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400229</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924556</v>
+        <v>89.06417631464153</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924556</v>
+        <v>89.06417631464153</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924556</v>
+        <v>89.06417631464153</v>
       </c>
       <c r="L23" t="n">
-        <v>58.20402256113607</v>
+        <v>137.451305565853</v>
       </c>
       <c r="M23" t="n">
-        <v>179.6880772714524</v>
+        <v>220.167269744016</v>
       </c>
       <c r="N23" t="n">
-        <v>256.9000362099018</v>
+        <v>297.3792286824654</v>
       </c>
       <c r="O23" t="n">
-        <v>292.8997408142968</v>
+        <v>333.3789332868604</v>
       </c>
       <c r="P23" t="n">
-        <v>292.8997408142968</v>
+        <v>454.8629879971764</v>
       </c>
       <c r="Q23" t="n">
-        <v>292.8997408142968</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R23" t="n">
-        <v>292.8997408142968</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S23" t="n">
-        <v>323.808098849122</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T23" t="n">
-        <v>421.0529775341735</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V23" t="n">
-        <v>490.608866647178</v>
+        <v>490.6088666471766</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227597</v>
+        <v>473.1845019227584</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923421</v>
+        <v>433.652813492341</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914763</v>
+        <v>371.3909703914752</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.7675664150326</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C24" t="n">
-        <v>133.7675664150326</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K24" t="n">
-        <v>48.69249843149183</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L24" t="n">
         <v>167.2520893996962</v>
       </c>
       <c r="M24" t="n">
-        <v>167.2520893996962</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7361441100126</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="O24" t="n">
-        <v>410.220198820329</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962278</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962278</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962278</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="T24" t="n">
-        <v>490.8446654962278</v>
+        <v>242.943319286011</v>
       </c>
       <c r="U24" t="n">
-        <v>366.8939923911198</v>
+        <v>118.9926461809033</v>
       </c>
       <c r="V24" t="n">
-        <v>242.9433192860117</v>
+        <v>118.9926461809033</v>
       </c>
       <c r="W24" t="n">
-        <v>242.9433192860117</v>
+        <v>118.9926461809033</v>
       </c>
       <c r="X24" t="n">
-        <v>133.7675664150326</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.7675664150326</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924556</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979647</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686417</v>
+        <v>885.8369123686409</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666775</v>
+        <v>759.7242097666767</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986437</v>
+        <v>599.5642824986431</v>
       </c>
       <c r="F26" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019454</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336795</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070273</v>
       </c>
       <c r="I26" t="n">
         <v>36.07420981112214</v>
@@ -6227,25 +6227,25 @@
         <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
-        <v>377.222566061304</v>
+        <v>377.2225660613049</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381354</v>
+        <v>636.4010735381363</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419183</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105987</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936002</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543466</v>
+        <v>1662.071556543468</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519003</v>
+        <v>1785.188566519004</v>
       </c>
       <c r="R26" t="n">
         <v>1803.710490556107</v>
@@ -6257,16 +6257,16 @@
         <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054895</v>
+        <v>1742.012430054894</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546946</v>
+        <v>1632.962733546945</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.724471163628</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074312</v>
+        <v>1358.378885074311</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.303144314547</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.501926093878</v>
+        <v>225.4864840781584</v>
       </c>
       <c r="C27" t="n">
-        <v>196.501926093878</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D27" t="n">
-        <v>196.501926093878</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E27" t="n">
-        <v>196.501926093878</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F27" t="n">
         <v>36.07420981112214</v>
@@ -6324,31 +6324,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687727</v>
+        <v>757.9190033366447</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687727</v>
+        <v>564.5000201554791</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541956</v>
+        <v>562.4522041409022</v>
       </c>
       <c r="U27" t="n">
-        <v>559.0691451589054</v>
+        <v>537.8995677822612</v>
       </c>
       <c r="V27" t="n">
-        <v>531.0607240991886</v>
+        <v>294.8198496858953</v>
       </c>
       <c r="W27" t="n">
-        <v>476.7334518661291</v>
+        <v>240.4925774528359</v>
       </c>
       <c r="X27" t="n">
-        <v>385.6071750488362</v>
+        <v>236.0558801061815</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.0377790208131</v>
+        <v>225.4864840781584</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>36.07420981112214</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07420981112214</v>
+        <v>103.1347642885385</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07420981112214</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07420981112214</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="N28" t="n">
-        <v>116.7335391553827</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="O28" t="n">
-        <v>116.7335391553827</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901362</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153492</v>
+        <v>247.5432591153488</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695733</v>
+        <v>236.613428169573</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344204</v>
+        <v>160.1127090344202</v>
       </c>
       <c r="V28" t="n">
-        <v>127.599142248393</v>
+        <v>127.5991422483928</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096609</v>
+        <v>49.42730081096598</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868346</v>
+        <v>40.3375317786834</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07420981112214</v>
@@ -6440,19 +6440,19 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686418</v>
+        <v>885.8369123686414</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666777</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986439</v>
+        <v>599.5642824986434</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019461</v>
+        <v>407.3636102019456</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336793</v>
       </c>
       <c r="H29" t="n">
         <v>64.03178362070281</v>
@@ -6461,16 +6461,16 @@
         <v>36.07420981112214</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778248</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613041</v>
+        <v>377.2225660613043</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381355</v>
+        <v>636.4010735381357</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419184</v>
+        <v>929.9084159419185</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105988</v>
@@ -6479,7 +6479,7 @@
         <v>1464.702835936002</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543466</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.188566519003</v>
@@ -6488,10 +6488,10 @@
         <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823151</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787404</v>
       </c>
       <c r="U29" t="n">
         <v>1742.012430054895</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>461.7273584914515</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C30" t="n">
-        <v>346.743237057764</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D30" t="n">
-        <v>346.743237057764</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E30" t="n">
-        <v>346.743237057764</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3155207750081</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G30" t="n">
         <v>36.07420981112214</v>
@@ -6561,31 +6561,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="T30" t="n">
-        <v>583.6217815175464</v>
+        <v>588.1112269105155</v>
       </c>
       <c r="U30" t="n">
-        <v>559.0691451589054</v>
+        <v>563.5585905518744</v>
       </c>
       <c r="V30" t="n">
-        <v>531.0607240991886</v>
+        <v>320.4788724555085</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7334518661291</v>
+        <v>51.08030318579976</v>
       </c>
       <c r="X30" t="n">
-        <v>472.2967545194747</v>
+        <v>46.6436058391453</v>
       </c>
       <c r="Y30" t="n">
-        <v>461.7273584914515</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="H31" t="n">
-        <v>1616.248085694761</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="I31" t="n">
-        <v>1616.248085694761</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J31" t="n">
-        <v>1616.248085694761</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K31" t="n">
-        <v>1616.248085694761</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="L31" t="n">
-        <v>1629.353739380523</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="M31" t="n">
-        <v>1629.353739380523</v>
+        <v>95.84719891455342</v>
       </c>
       <c r="N31" t="n">
-        <v>1629.353739380523</v>
+        <v>95.84719891455342</v>
       </c>
       <c r="O31" t="n">
-        <v>1803.710490556107</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="P31" t="n">
-        <v>1803.710490556107</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="Q31" t="n">
-        <v>1803.710490556107</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="R31" t="n">
-        <v>1803.710490556107</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.049799581319</v>
+        <v>247.5432591153494</v>
       </c>
       <c r="T31" t="n">
-        <v>1770.119968635544</v>
+        <v>236.6134281695735</v>
       </c>
       <c r="U31" t="n">
-        <v>1693.619249500391</v>
+        <v>160.1127090344206</v>
       </c>
       <c r="V31" t="n">
-        <v>1661.105682714363</v>
+        <v>127.5991422483931</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.933841276936</v>
+        <v>49.42730081096615</v>
       </c>
       <c r="X31" t="n">
-        <v>1573.844072244653</v>
+        <v>40.33753177868348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1569.580750277092</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686429</v>
+        <v>885.8369123686414</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666787</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986448</v>
+        <v>599.5642824986434</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019471</v>
+        <v>407.3636102019457</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336809</v>
+        <v>199.3768190336795</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0317836207028</v>
+        <v>64.03178362070275</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778238</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613036</v>
       </c>
       <c r="L32" t="n">
-        <v>636.401073538136</v>
+        <v>636.4010735381351</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419189</v>
+        <v>929.9084159419181</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105987</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936002</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543467</v>
+        <v>1662.071556543466</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.188566519003</v>
@@ -6725,25 +6725,25 @@
         <v>1803.710490556107</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823151</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787404</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054894</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163628</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.303144314548</v>
+        <v>1187.303144314547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>246.6560614548024</v>
+        <v>104.7303033403699</v>
       </c>
       <c r="C33" t="n">
-        <v>57.24378718776609</v>
+        <v>104.7303033403699</v>
       </c>
       <c r="D33" t="n">
-        <v>57.24378718776609</v>
+        <v>104.7303033403699</v>
       </c>
       <c r="E33" t="n">
-        <v>57.24378718776609</v>
+        <v>104.7303033403699</v>
       </c>
       <c r="F33" t="n">
-        <v>57.24378718776609</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268942</v>
+        <v>74.94981493268941</v>
       </c>
       <c r="L33" t="n">
-        <v>193.5094059008938</v>
+        <v>193.5094059008937</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6175206836083</v>
+        <v>376.6175206836082</v>
       </c>
       <c r="N33" t="n">
         <v>582.9918519763005</v>
@@ -6798,31 +6798,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687727</v>
+        <v>658.8151364543398</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687727</v>
+        <v>658.8151364543398</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541956</v>
+        <v>656.7673204397629</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1404421955546</v>
+        <v>632.214684081122</v>
       </c>
       <c r="V33" t="n">
-        <v>531.0607240991886</v>
+        <v>389.134965984756</v>
       </c>
       <c r="W33" t="n">
-        <v>261.66215482948</v>
+        <v>119.7363967150474</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2254574828255</v>
+        <v>115.299699368393</v>
       </c>
       <c r="Y33" t="n">
-        <v>246.6560614548024</v>
+        <v>104.7303033403699</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112215</v>
+        <v>82.74154522879141</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07420981112215</v>
+        <v>130.4709214255308</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07420981112215</v>
+        <v>130.4709214255308</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07420981112215</v>
+        <v>130.4709214255308</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07420981112215</v>
+        <v>130.4709214255308</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112215</v>
+        <v>130.4709214255308</v>
       </c>
       <c r="N34" t="n">
-        <v>231.2354300709688</v>
+        <v>260.5952678013783</v>
       </c>
       <c r="O34" t="n">
-        <v>231.2354300709688</v>
+        <v>260.5952678013783</v>
       </c>
       <c r="P34" t="n">
-        <v>231.2354300709688</v>
+        <v>260.5952678013783</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.5952678013786</v>
+        <v>260.5952678013783</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901365</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153492</v>
+        <v>247.543259115349</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695733</v>
+        <v>236.6134281695732</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344204</v>
+        <v>160.1127090344203</v>
       </c>
       <c r="V34" t="n">
-        <v>127.599142248393</v>
+        <v>127.5991422483929</v>
       </c>
       <c r="W34" t="n">
-        <v>49.4273008109661</v>
+        <v>49.42730081096604</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868346</v>
+        <v>40.33753177868343</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112214</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561335</v>
+        <v>772.2454280561326</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457954</v>
+        <v>669.3219062457947</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444994</v>
+        <v>578.9573114444988</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771338</v>
+        <v>454.5454919771334</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811042</v>
+        <v>298.0929274811039</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I35" t="n">
-        <v>33.8928188658625</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880004</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K35" t="n">
-        <v>204.6032952880004</v>
+        <v>266.7686372401121</v>
       </c>
       <c r="L35" t="n">
-        <v>498.8185232202667</v>
+        <v>560.9838651723785</v>
       </c>
       <c r="M35" t="n">
-        <v>695.7875237280834</v>
+        <v>643.6998293505414</v>
       </c>
       <c r="N35" t="n">
-        <v>772.9994826665328</v>
+        <v>966.7398869700456</v>
       </c>
       <c r="O35" t="n">
-        <v>1054.827285951983</v>
+        <v>1248.567690255496</v>
       </c>
       <c r="P35" t="n">
-        <v>1287.232727014881</v>
+        <v>1248.567690255496</v>
       </c>
       <c r="Q35" t="n">
-        <v>1287.232727014881</v>
+        <v>1259.307180567341</v>
       </c>
       <c r="R35" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.00877712804</v>
+        <v>1311.008777128038</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.707188420758</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838109</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549462</v>
+        <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903651</v>
+        <v>899.291922590364</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>539.4741056107054</v>
+        <v>215.6695907682339</v>
       </c>
       <c r="C36" t="n">
-        <v>350.061831343669</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D36" t="n">
-        <v>350.061831343669</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E36" t="n">
-        <v>176.4986274650835</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F36" t="n">
-        <v>176.4986274650835</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K36" t="n">
         <v>65.13292162276488</v>
@@ -7038,28 +7038,28 @@
         <v>790.9240012588481</v>
       </c>
       <c r="R36" t="n">
-        <v>790.9240012588481</v>
+        <v>655.2012843449115</v>
       </c>
       <c r="S36" t="n">
-        <v>790.9240012588481</v>
+        <v>655.2012843449115</v>
       </c>
       <c r="T36" t="n">
-        <v>790.9240012588481</v>
+        <v>655.2012843449115</v>
       </c>
       <c r="U36" t="n">
-        <v>790.9240012588481</v>
+        <v>655.2012843449115</v>
       </c>
       <c r="V36" t="n">
-        <v>790.9240012588481</v>
+        <v>453.7567495839287</v>
       </c>
       <c r="W36" t="n">
-        <v>539.4741056107054</v>
+        <v>435.1775851515375</v>
       </c>
       <c r="X36" t="n">
-        <v>539.4741056107054</v>
+        <v>215.6695907682339</v>
       </c>
       <c r="Y36" t="n">
-        <v>539.4741056107054</v>
+        <v>215.6695907682339</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="L37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="M37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="N37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="O37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="P37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="R37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="S37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="T37" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239913</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795632</v>
+        <v>65.51087648950671</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795619</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561334</v>
       </c>
       <c r="C38" t="n">
-        <v>669.321906245795</v>
+        <v>669.3219062457955</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444991</v>
+        <v>578.9573114444995</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771335</v>
+        <v>454.545491977134</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811039</v>
+        <v>298.0929274811045</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I38" t="n">
-        <v>26.25731650119761</v>
+        <v>33.8928188658626</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9677929233355</v>
+        <v>204.6032952880006</v>
       </c>
       <c r="K38" t="n">
-        <v>437.47911366225</v>
+        <v>445.1146160269152</v>
       </c>
       <c r="L38" t="n">
-        <v>485.8662429134615</v>
+        <v>663.0074948912049</v>
       </c>
       <c r="M38" t="n">
-        <v>568.5822070916245</v>
+        <v>987.9417865935253</v>
       </c>
       <c r="N38" t="n">
-        <v>645.7941660300738</v>
+        <v>1065.153745531975</v>
       </c>
       <c r="O38" t="n">
-        <v>843.1149110284723</v>
+        <v>1101.15345013637</v>
       </c>
       <c r="P38" t="n">
-        <v>1075.520352091371</v>
+        <v>1101.15345013637</v>
       </c>
       <c r="Q38" t="n">
-        <v>1233.674082522343</v>
+        <v>1259.307180567341</v>
       </c>
       <c r="R38" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="U38" t="n">
         <v>1311.008777128039</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.707188420758</v>
       </c>
       <c r="W38" t="n">
         <v>1147.21703383811</v>
@@ -7217,7 +7217,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903647</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>445.5281703762472</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C39" t="n">
-        <v>445.5281703762472</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D39" t="n">
-        <v>284.748054137279</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E39" t="n">
-        <v>284.748054137279</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F39" t="n">
-        <v>284.748054137279</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G39" t="n">
-        <v>134.5067431733931</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H39" t="n">
-        <v>134.5067431733931</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="K39" t="n">
         <v>65.13292162276488</v>
@@ -7278,25 +7278,25 @@
         <v>790.9240012588481</v>
       </c>
       <c r="S39" t="n">
-        <v>790.9240012588481</v>
+        <v>597.5050180776825</v>
       </c>
       <c r="T39" t="n">
-        <v>790.9240012588481</v>
+        <v>527.5401324252449</v>
       </c>
       <c r="U39" t="n">
-        <v>790.9240012588481</v>
+        <v>287.9161990299547</v>
       </c>
       <c r="V39" t="n">
-        <v>790.9240012588481</v>
+        <v>44.83648093358879</v>
       </c>
       <c r="W39" t="n">
-        <v>665.0361647595508</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="X39" t="n">
-        <v>445.5281703762472</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y39" t="n">
-        <v>445.5281703762472</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="C40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="D40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="E40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="F40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="G40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="H40" t="n">
-        <v>26.25731650119761</v>
+        <v>107.9613723743018</v>
       </c>
       <c r="I40" t="n">
-        <v>109.0234131533718</v>
+        <v>107.9613723743018</v>
       </c>
       <c r="J40" t="n">
-        <v>109.0234131533718</v>
+        <v>107.9613723743018</v>
       </c>
       <c r="K40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="L40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="M40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="N40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="O40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="P40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="R40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="S40" t="n">
-        <v>109.0234131533718</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="T40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795619</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795619</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.2573165011976</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780275</v>
+        <v>820.8965178780265</v>
       </c>
       <c r="C41" t="n">
-        <v>710.182462076602</v>
+        <v>710.1824620766009</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842185</v>
+        <v>612.0273332842175</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257652</v>
+        <v>479.8249798257643</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386479</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
       </c>
       <c r="H41" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I41" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J41" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K41" t="n">
-        <v>191.240176434039</v>
+        <v>179.985996372786</v>
       </c>
       <c r="L41" t="n">
-        <v>477.8199020016404</v>
+        <v>466.5657219403874</v>
       </c>
       <c r="M41" t="n">
-        <v>798.7284624961933</v>
+        <v>787.4742824349403</v>
       </c>
       <c r="N41" t="n">
-        <v>875.9404214346426</v>
+        <v>1102.878837689779</v>
       </c>
       <c r="O41" t="n">
-        <v>1150.132722355428</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="P41" t="n">
-        <v>1331.147996482691</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.147996482691</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.071138610565</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.262523147966</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
@@ -7445,16 +7445,16 @@
         <v>1398.612536905371</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.520414207003</v>
+        <v>1317.520414207002</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.239725633267</v>
+        <v>1219.239725633266</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.851713353531</v>
+        <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033464</v>
+        <v>955.7335464033455</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>523.3824706143718</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="C42" t="n">
-        <v>362.5085224941198</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D42" t="n">
-        <v>201.7284062551516</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813328</v>
+        <v>67.04080749813326</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663376</v>
@@ -7518,22 +7518,22 @@
         <v>792.8318871342165</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8318871342165</v>
+        <v>762.8792453563733</v>
       </c>
       <c r="U42" t="n">
-        <v>792.8318871342165</v>
+        <v>523.2553119610831</v>
       </c>
       <c r="V42" t="n">
-        <v>792.7810398840804</v>
+        <v>523.204464710947</v>
       </c>
       <c r="W42" t="n">
-        <v>523.3824706143718</v>
+        <v>253.8058954412383</v>
       </c>
       <c r="X42" t="n">
-        <v>523.3824706143718</v>
+        <v>253.8058954412383</v>
       </c>
       <c r="Y42" t="n">
-        <v>523.3824706143718</v>
+        <v>28.16520237656599</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="C43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J43" t="n">
-        <v>28.165202376566</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="K43" t="n">
-        <v>28.165202376566</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064312</v>
+        <v>72.58834227970733</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064312</v>
+        <v>109.5982426592354</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064312</v>
+        <v>114.7897175256162</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U43" t="n">
-        <v>82.935462980859</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441221</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="X43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780277</v>
+        <v>820.8965178780273</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766014</v>
+        <v>710.182462076602</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842178</v>
+        <v>612.0273332842182</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257647</v>
+        <v>479.8249798257651</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386476</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5526639799621</v>
+        <v>135.552663979962</v>
       </c>
       <c r="H44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J44" t="n">
-        <v>191.240176434039</v>
+        <v>191.2401764340391</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082886</v>
+        <v>424.1159948082887</v>
       </c>
       <c r="L44" t="n">
-        <v>710.69572037589</v>
+        <v>710.6957203758902</v>
       </c>
       <c r="M44" t="n">
-        <v>793.411684554053</v>
+        <v>793.4116845540532</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.816239808892</v>
+        <v>1108.816239808893</v>
       </c>
       <c r="O44" t="n">
-        <v>1144.815944413287</v>
+        <v>1180.629768416384</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.744295081659</v>
+        <v>1180.629768416384</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.262523147966</v>
+        <v>1331.14799648269</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.262523147966</v>
+        <v>1377.071138610564</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.262523147966</v>
+        <v>1390.262523147965</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
@@ -7685,13 +7685,13 @@
         <v>1317.520414207003</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633267</v>
+        <v>1219.239725633266</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.851713353531</v>
+        <v>1098.85171335353</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033466</v>
+        <v>955.7335464033463</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.5085224941198</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="C45" t="n">
-        <v>362.5085224941198</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D45" t="n">
-        <v>201.7284062551516</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813328</v>
+        <v>67.04080749813326</v>
       </c>
       <c r="L45" t="n">
         <v>185.6003984663376</v>
@@ -7752,25 +7752,25 @@
         <v>792.8318871342165</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8318871342165</v>
+        <v>599.412903953051</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8318871342165</v>
+        <v>382.2937909018248</v>
       </c>
       <c r="U45" t="n">
-        <v>553.2079537389262</v>
+        <v>233.1216009771158</v>
       </c>
       <c r="V45" t="n">
-        <v>553.1571064887902</v>
+        <v>233.0707537269798</v>
       </c>
       <c r="W45" t="n">
-        <v>526.7874080653114</v>
+        <v>206.7010553035011</v>
       </c>
       <c r="X45" t="n">
-        <v>526.7874080653114</v>
+        <v>206.7010553035011</v>
       </c>
       <c r="Y45" t="n">
-        <v>526.7874080653114</v>
+        <v>206.7010553035011</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="C46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="F46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="J46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.478608306431</v>
       </c>
       <c r="U46" t="n">
-        <v>82.935462980859</v>
+        <v>82.93546298085889</v>
       </c>
       <c r="V46" t="n">
-        <v>78.37947000441221</v>
+        <v>78.37947000441216</v>
       </c>
       <c r="W46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="X46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656599</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>167.2528032383454</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N12" t="n">
-        <v>102.1549380769538</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681792</v>
+        <v>120.8337805941225</v>
       </c>
       <c r="P12" t="n">
-        <v>202.2432037328736</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>167.2528032383453</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510104</v>
+        <v>102.1549380769538</v>
       </c>
       <c r="O15" t="n">
-        <v>120.8337805941226</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>202.2432037328737</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>167.2528032383454</v>
       </c>
       <c r="L18" t="n">
-        <v>120.5473811624957</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510104</v>
+        <v>102.1549380769538</v>
       </c>
       <c r="O18" t="n">
-        <v>236.4702728424626</v>
+        <v>243.5449469681792</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,16 +9480,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.1051855825679</v>
+        <v>164.2987994584345</v>
       </c>
       <c r="L21" t="n">
-        <v>152.7409950383624</v>
+        <v>120.5473811624957</v>
       </c>
       <c r="M21" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510104</v>
+        <v>224.8661044510105</v>
       </c>
       <c r="O21" t="n">
         <v>243.5449469681792</v>
@@ -9723,16 +9723,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>116.8191896102884</v>
+        <v>235.409685638539</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510107</v>
+        <v>102.1549380769538</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2432037328741</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23261,10 +23261,10 @@
         <v>155.9939274937891</v>
       </c>
       <c r="D11" t="n">
-        <v>20.84942338078095</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E11" t="n">
-        <v>177.2673421742465</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F11" t="n">
         <v>208.9876797526238</v>
@@ -23273,10 +23273,10 @@
         <v>224.6159374354765</v>
       </c>
       <c r="H11" t="n">
-        <v>152.7005992377401</v>
+        <v>29.98943286368333</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>46.38701225037784</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451849</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428239</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.9381183540775</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>18.58421837949331</v>
+        <v>3.957047347705611</v>
       </c>
       <c r="W11" t="n">
-        <v>20.97372756432057</v>
+        <v>20.97372756432048</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073164</v>
+        <v>141.6328900934072</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.36283115700355</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23501,16 +23501,16 @@
         <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>54.55617580018979</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F14" t="n">
-        <v>95.40064046917652</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
         <v>224.6159374354765</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368337</v>
+        <v>133.6171036540669</v>
       </c>
       <c r="I14" t="n">
         <v>46.38701225037785</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428236</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>126.6682137217623</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383772</v>
+        <v>20.97372756432048</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073164</v>
+        <v>42.85997803325972</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310602</v>
+        <v>65.36283115700348</v>
       </c>
     </row>
     <row r="15">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712210.8068566105</v>
+        <v>712210.8068566106</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712210.8068566103</v>
+        <v>712210.8068566106</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793738.7956588137</v>
+        <v>793738.7956588139</v>
       </c>
       <c r="C2" t="n">
         <v>793738.7956588137</v>
@@ -26320,40 +26320,40 @@
         <v>793738.7956588137</v>
       </c>
       <c r="E2" t="n">
-        <v>683991.0801184323</v>
+        <v>683991.0801184321</v>
       </c>
       <c r="F2" t="n">
-        <v>683991.0801184322</v>
+        <v>683991.0801184317</v>
       </c>
       <c r="G2" t="n">
+        <v>795346.6939726825</v>
+      </c>
+      <c r="H2" t="n">
+        <v>795346.6939726826</v>
+      </c>
+      <c r="I2" t="n">
+        <v>795346.6939726822</v>
+      </c>
+      <c r="J2" t="n">
+        <v>795346.693972683</v>
+      </c>
+      <c r="K2" t="n">
+        <v>795346.6939726834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>795346.6939726835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>795346.6939726822</v>
+      </c>
+      <c r="N2" t="n">
+        <v>795346.6939726822</v>
+      </c>
+      <c r="O2" t="n">
+        <v>795346.6939726821</v>
+      </c>
+      <c r="P2" t="n">
         <v>795346.6939726823</v>
-      </c>
-      <c r="H2" t="n">
-        <v>795346.6939726828</v>
-      </c>
-      <c r="I2" t="n">
-        <v>795346.6939726826</v>
-      </c>
-      <c r="J2" t="n">
-        <v>795346.6939726834</v>
-      </c>
-      <c r="K2" t="n">
-        <v>795346.6939726832</v>
-      </c>
-      <c r="L2" t="n">
-        <v>795346.6939726836</v>
-      </c>
-      <c r="M2" t="n">
-        <v>795346.6939726823</v>
-      </c>
-      <c r="N2" t="n">
-        <v>795346.6939726825</v>
-      </c>
-      <c r="O2" t="n">
-        <v>795346.6939726823</v>
-      </c>
-      <c r="P2" t="n">
-        <v>795346.6939726821</v>
       </c>
     </row>
     <row r="3">
@@ -26375,19 +26375,19 @@
         <v>275420.9947649909</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155064.5154470555</v>
+        <v>155064.5154470556</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.5013781292</v>
+        <v>28312.50137812931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053839</v>
+        <v>68757.72909053831</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>338683.1874182847</v>
       </c>
       <c r="F4" t="n">
-        <v>338683.1874182847</v>
+        <v>338683.1874182848</v>
       </c>
       <c r="G4" t="n">
-        <v>409186.2663395518</v>
+        <v>409186.2663395519</v>
       </c>
       <c r="H4" t="n">
-        <v>409186.2663395518</v>
+        <v>409186.2663395519</v>
       </c>
       <c r="I4" t="n">
         <v>409186.2663395519</v>
@@ -26445,7 +26445,7 @@
         <v>407456.4004199021</v>
       </c>
       <c r="L4" t="n">
-        <v>407456.4004199021</v>
+        <v>407456.4004199022</v>
       </c>
       <c r="M4" t="n">
         <v>406912.0322437919</v>
@@ -26485,10 +26485,10 @@
         <v>36680.62957505705</v>
       </c>
       <c r="H5" t="n">
+        <v>36680.62957505706</v>
+      </c>
+      <c r="I5" t="n">
         <v>36680.62957505705</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36680.62957505706</v>
       </c>
       <c r="J5" t="n">
         <v>47579.79330930411</v>
@@ -26506,7 +26506,7 @@
         <v>43094.2089917089</v>
       </c>
       <c r="O5" t="n">
-        <v>43895.8092789131</v>
+        <v>43895.80927891309</v>
       </c>
       <c r="P5" t="n">
         <v>43895.8092789131</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314011.5508102584</v>
+        <v>314007.0844260534</v>
       </c>
       <c r="C6" t="n">
-        <v>314011.5508102584</v>
+        <v>314007.0844260532</v>
       </c>
       <c r="D6" t="n">
-        <v>314011.5508102584</v>
+        <v>314007.0844260532</v>
       </c>
       <c r="E6" t="n">
-        <v>43835.51327976814</v>
+        <v>43526.19213017276</v>
       </c>
       <c r="F6" t="n">
-        <v>319256.5080447589</v>
+        <v>318947.1868951631</v>
       </c>
       <c r="G6" t="n">
         <v>248331.9797691111</v>
       </c>
       <c r="H6" t="n">
-        <v>349479.7980580739</v>
+        <v>349479.7980580736</v>
       </c>
       <c r="I6" t="n">
-        <v>349479.7980580736</v>
+        <v>349479.7980580733</v>
       </c>
       <c r="J6" t="n">
-        <v>185245.9847964217</v>
+        <v>185245.9847964213</v>
       </c>
       <c r="K6" t="n">
-        <v>340310.500243477</v>
+        <v>340310.5002434773</v>
       </c>
       <c r="L6" t="n">
-        <v>239162.6819545149</v>
+        <v>239162.6819545148</v>
       </c>
       <c r="M6" t="n">
-        <v>317027.9513590523</v>
+        <v>317027.9513590521</v>
       </c>
       <c r="N6" t="n">
-        <v>345340.4527371817</v>
+        <v>345340.4527371814</v>
       </c>
       <c r="O6" t="n">
-        <v>275678.194800089</v>
+        <v>275678.1948000888</v>
       </c>
       <c r="P6" t="n">
-        <v>344435.9238906271</v>
+        <v>344435.9238906273</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>320.6463427485928</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="K2" t="n">
         <v>212.9205840662827</v>
@@ -26716,10 +26716,10 @@
         <v>212.9205840662827</v>
       </c>
       <c r="M2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="N2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="O2" t="n">
         <v>240.5985821377676</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="G4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="H4" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.7111663740566</v>
-      </c>
-      <c r="F4" t="n">
-        <v>122.7111663740566</v>
-      </c>
-      <c r="G4" t="n">
-        <v>122.7111663740566</v>
-      </c>
-      <c r="H4" t="n">
-        <v>122.7111663740566</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122.7111663740569</v>
       </c>
       <c r="J4" t="n">
         <v>450.9276226390267</v>
@@ -26817,19 +26817,19 @@
         <v>450.9276226390267</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9276226390268</v>
+        <v>450.9276226390267</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.21645626497</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.21645626497</v>
       </c>
       <c r="O4" t="n">
-        <v>352.065029707075</v>
+        <v>352.0650297070749</v>
       </c>
       <c r="P4" t="n">
-        <v>352.065029707075</v>
+        <v>352.0650297070749</v>
       </c>
     </row>
   </sheetData>
@@ -26917,19 +26917,19 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507964</v>
+        <v>86.48581120507967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266149</v>
+        <v>35.39062672266164</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390301</v>
+        <v>78.7731825539029</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649698</v>
+        <v>328.2164562649701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210485</v>
+        <v>23.84857344210491</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507964</v>
+        <v>86.48581120507967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,25 +28111,25 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>194.2115698873897</v>
+        <v>147.5499868594114</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838702</v>
+        <v>128.0816491438954</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.15968740621524</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.7192886584513</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>95.16742461665356</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q11" t="n">
         <v>88.55996792937728</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>36.11227274587169</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388978542471</v>
@@ -28187,7 +28187,7 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
         <v>51.93601990319851</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>180.1022993880681</v>
+        <v>68.77362697529716</v>
       </c>
       <c r="T12" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>158.0769696551656</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873897</v>
+        <v>117.9377545413456</v>
       </c>
       <c r="W12" t="n">
         <v>194.2115698873897</v>
@@ -28275,16 +28275,16 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876646</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597141</v>
+        <v>90.95232801375155</v>
       </c>
       <c r="N13" t="n">
-        <v>82.27345214704643</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O13" t="n">
-        <v>36.80265358589534</v>
+        <v>159.5138199599521</v>
       </c>
       <c r="P13" t="n">
         <v>180.6111333345274</v>
@@ -28354,7 +28354,7 @@
         <v>5.370482769838723</v>
       </c>
       <c r="L14" t="n">
-        <v>73.83527824151979</v>
+        <v>30.04506100792548</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>86.34782838981937</v>
       </c>
       <c r="P14" t="n">
         <v>136.2694063923959</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.1175790856022</v>
+        <v>88.55996792937731</v>
       </c>
       <c r="R14" t="n">
         <v>194.2115698873897</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.03932802360909</v>
+        <v>87.68286868201689</v>
       </c>
       <c r="C15" t="n">
-        <v>68.96872515760661</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28457,7 +28457,7 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873897</v>
+        <v>92.23675554665725</v>
       </c>
       <c r="U15" t="n">
         <v>194.2115698873897</v>
@@ -28466,7 +28466,7 @@
         <v>194.2115698873897</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873897</v>
+        <v>143.9934172029549</v>
       </c>
       <c r="X15" t="n">
         <v>194.2115698873897</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959906883239</v>
@@ -28509,25 +28509,25 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47413857346803</v>
+        <v>91.90667346083053</v>
       </c>
       <c r="L16" t="n">
-        <v>129.732253373361</v>
+        <v>31.44053041360793</v>
       </c>
       <c r="M16" t="n">
         <v>24.46691421597142</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926589</v>
+        <v>138.4992047233226</v>
       </c>
       <c r="O16" t="n">
-        <v>159.513819959952</v>
+        <v>36.80265358589536</v>
       </c>
       <c r="P16" t="n">
         <v>57.89996696047072</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.2115698873897</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R16" t="n">
         <v>194.2115698873897</v>
@@ -28585,19 +28585,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011804</v>
+        <v>198.5875524941747</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838702</v>
+        <v>121.7633721675834</v>
       </c>
       <c r="L17" t="n">
-        <v>2.785225469744752</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44.71928865845126</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>194.2115698873897</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T17" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
         <v>250.1496882414672</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>68.66649905539659</v>
       </c>
       <c r="C18" t="n">
-        <v>64.80698515030927</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.11227274587169</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388978542471</v>
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074042</v>
       </c>
       <c r="S18" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T18" t="n">
-        <v>158.7999464816434</v>
+        <v>92.23675554665725</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413456</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>94.60174806541396</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28825,7 +28825,7 @@
         <v>75.87638612011804</v>
       </c>
       <c r="K20" t="n">
-        <v>128.0816491438953</v>
+        <v>28.39098071089886</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>23.02049794106009</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>13.55824001833918</v>
@@ -28846,7 +28846,7 @@
         <v>88.55996792937728</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2115698873897</v>
+        <v>316.9227362614463</v>
       </c>
       <c r="S20" t="n">
         <v>320.6463427485928</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.03932802360909</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>51.08831973430949</v>
+        <v>51.08831973430939</v>
       </c>
       <c r="E21" t="n">
-        <v>49.11640546574303</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28925,7 +28925,7 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074042</v>
       </c>
       <c r="S21" t="n">
         <v>191.4847933493539</v>
@@ -28937,13 +28937,13 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413456</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>94.60174806541396</v>
+        <v>94.60174806541391</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29056,7 +29056,7 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5985821377676</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J23" t="n">
         <v>75.87638612011804</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>39.15968740621554</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833918</v>
+        <v>136.2694063923958</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937728</v>
+        <v>124.9050967162963</v>
       </c>
       <c r="R23" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S23" t="n">
-        <v>258.4945149634488</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U23" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
         <v>320.6463427485928</v>
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>36.4611487025216</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29162,25 +29162,25 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665739</v>
       </c>
       <c r="U24" t="n">
-        <v>114.5165276872804</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V24" t="n">
-        <v>117.9377545413453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>109.2289190972013</v>
+        <v>109.2289190972016</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662816</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388978542471</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3654897447971</v>
+        <v>98.11282821348172</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4847933493539</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="X27" t="n">
-        <v>127.0979003903506</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,19 +29460,19 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360792</v>
+        <v>200.1972837485551</v>
       </c>
       <c r="M28" t="n">
         <v>24.46691421597141</v>
       </c>
       <c r="N28" t="n">
-        <v>97.26210839397356</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O28" t="n">
         <v>36.80265358589534</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662827</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q28" t="n">
         <v>126.816371201415</v>
@@ -29481,25 +29481,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9205840662821</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="L29" t="n">
         <v>212.9205840662827</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>73.68387130501524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
         <v>125.6804106468432</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
@@ -29642,16 +29642,16 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>10.58556172753066</v>
       </c>
       <c r="U30" t="n">
         <v>212.9205840662827</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>212.9205840662827</v>
@@ -29685,7 +29685,7 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H31" t="n">
-        <v>212.9205840662827</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I31" t="n">
         <v>164.7090929584652</v>
@@ -29697,10 +29697,10 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L31" t="n">
-        <v>44.67856443963018</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597141</v>
+        <v>84.84367088610401</v>
       </c>
       <c r="N31" t="n">
         <v>15.78803834926588</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,10 +29837,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>90.85390652597309</v>
       </c>
       <c r="G33" t="n">
-        <v>127.7810162513696</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H33" t="n">
         <v>125.6804106468432</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4847933493539</v>
@@ -29922,10 +29922,10 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7818614221724</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7090929584652</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J34" t="n">
         <v>119.9013618977275</v>
@@ -29940,7 +29940,7 @@
         <v>24.46691421597141</v>
       </c>
       <c r="N34" t="n">
-        <v>212.9205840662827</v>
+        <v>147.2267720622432</v>
       </c>
       <c r="O34" t="n">
         <v>36.80265358589534</v>
@@ -29949,7 +29949,7 @@
         <v>57.89996696047071</v>
       </c>
       <c r="Q34" t="n">
-        <v>156.4727729493036</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R34" t="n">
         <v>212.9205840662827</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
-        <v>248.3112107889442</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J35" t="n">
-        <v>248.3112107889442</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K35" t="n">
-        <v>5.370482769838702</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="L35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="M35" t="n">
-        <v>115.4071074036907</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="O35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889442</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.55996792937728</v>
+        <v>99.40793794134235</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2115698873897</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="S35" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="36">
@@ -30071,13 +30071,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
         <v>125.6804106468432</v>
@@ -30110,7 +30110,7 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.4847933493539</v>
@@ -30122,13 +30122,13 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>41.21883150202925</v>
       </c>
       <c r="W36" t="n">
-        <v>17.76918688535031</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30180,7 +30180,7 @@
         <v>15.78803834926588</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8191636578584</v>
+        <v>117.6169680533637</v>
       </c>
       <c r="P37" t="n">
         <v>57.89996696047071</v>
@@ -30198,13 +30198,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5985821377676</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="K38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>171.2179289020992</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>244.6649772971286</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>162.9505458525288</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.3112107889442</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="R38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="S38" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T38" t="n">
-        <v>248.3112107889442</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30314,13 +30314,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
         <v>51.93601990319851</v>
@@ -30350,22 +30350,22 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493539</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.947921920714</v>
+        <v>145.6826851248007</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>142.0756254427073</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30396,16 +30396,16 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7818614221724</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I40" t="n">
-        <v>248.3112107889442</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J40" t="n">
         <v>119.9013618977275</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47413857346803</v>
+        <v>67.96129927865884</v>
       </c>
       <c r="L40" t="n">
         <v>31.44053041360792</v>
@@ -30432,16 +30432,16 @@
         <v>235.3546681313223</v>
       </c>
       <c r="T40" t="n">
-        <v>224.1555089440848</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,10 +30481,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5985821377676</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K41" t="n">
-        <v>5.370482769838702</v>
+        <v>158.7248201397579</v>
       </c>
       <c r="L41" t="n">
         <v>240.5985821377676</v>
@@ -30493,19 +30493,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="O41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="P41" t="n">
-        <v>196.4019512579987</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q41" t="n">
         <v>88.55996792937728</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5985821377676</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S41" t="n">
         <v>240.5985821377676</v>
@@ -30539,13 +30539,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>28.25294288531649</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30590,10 +30590,10 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>185.2948065606492</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.5985821377676</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,13 +30639,13 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J43" t="n">
-        <v>119.9013618977275</v>
+        <v>164.773220385749</v>
       </c>
       <c r="K43" t="n">
         <v>66.47413857346803</v>
       </c>
       <c r="L43" t="n">
-        <v>135.7975061003405</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M43" t="n">
         <v>24.46691421597141</v>
@@ -30663,13 +30663,13 @@
         <v>126.816371201415</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2148443806685</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3546681313223</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7411167026008</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="U43" t="n">
         <v>240.5985821377676</v>
@@ -30733,19 +30733,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>36.1755798011073</v>
       </c>
       <c r="P44" t="n">
-        <v>109.4454629156847</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2115698873897</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2739512919082</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="T44" t="n">
         <v>240.5985821377676</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.11439768218605</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30824,13 +30824,13 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493539</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>89.54722603587544</v>
       </c>
       <c r="V45" t="n">
         <v>240.5985821377676</v>
@@ -30879,7 +30879,7 @@
         <v>119.9013618977275</v>
       </c>
       <c r="K46" t="n">
-        <v>170.8311142602005</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L46" t="n">
         <v>31.44053041360792</v>
@@ -30888,7 +30888,7 @@
         <v>24.46691421597141</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926588</v>
+        <v>120.1450140359982</v>
       </c>
       <c r="O46" t="n">
         <v>36.80265358589534</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3351837672716</v>
+        <v>71.67360073929341</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="L11" t="n">
         <v>48.87588813253689</v>
       </c>
       <c r="M11" t="n">
-        <v>122.7111663740566</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560538</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O11" t="n">
         <v>36.36333798423735</v>
       </c>
       <c r="P11" t="n">
-        <v>81.60918459831437</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.26828800158311</v>
+        <v>35.1476176557775</v>
       </c>
       <c r="L12" t="n">
         <v>119.7571625941458</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>81.4388552281801</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>66.48541379778015</v>
       </c>
       <c r="N13" t="n">
-        <v>66.48541379778055</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>67.39519868597475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>122.7111663740566</v>
+        <v>78.92094914046234</v>
       </c>
       <c r="M14" t="n">
         <v>83.55147896784138</v>
@@ -35659,13 +35659,13 @@
         <v>77.99187771560536</v>
       </c>
       <c r="O14" t="n">
-        <v>36.36333798423732</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P14" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.55761115622495</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>35.14761765577747</v>
+        <v>39.26828800158309</v>
       </c>
       <c r="L15" t="n">
         <v>119.7571625941458</v>
       </c>
       <c r="M15" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398577</v>
+        <v>81.43885522818022</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.59464922242162</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.02891963667901</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.53542867516472</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.28468766894306</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>74.31020798966226</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>25.43253488736251</v>
       </c>
       <c r="L16" t="n">
-        <v>98.29172295975303</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597473</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>116.3928893977447</v>
       </c>
       <c r="L17" t="n">
-        <v>51.66111360228164</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M17" t="n">
         <v>83.5514789678414</v>
       </c>
       <c r="N17" t="n">
-        <v>122.7111663740566</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O17" t="n">
         <v>36.36333798423735</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.37239145668455</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158311</v>
+        <v>35.1476176557775</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.6364922483401</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P18" t="n">
         <v>85.55952557398578</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>122.7111663740566</v>
+        <v>23.02049794106016</v>
       </c>
       <c r="L20" t="n">
         <v>48.87588813253689</v>
@@ -36133,7 +36133,7 @@
         <v>77.99187771560538</v>
       </c>
       <c r="O20" t="n">
-        <v>59.38383592529744</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,10 +36142,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="S20" t="n">
-        <v>93.37239145668455</v>
+        <v>93.37239145668461</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>32.19361387586662</v>
       </c>
       <c r="L21" t="n">
-        <v>32.19361387586662</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740566</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P21" t="n">
         <v>85.55952557398578</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.04776061082526</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>48.87588813253689</v>
       </c>
       <c r="M23" t="n">
-        <v>122.7111663740569</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N23" t="n">
         <v>77.99187771560538</v>
@@ -36373,22 +36373,22 @@
         <v>36.36333798423735</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>36.34512878691904</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.22056367154061</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.22715018692068</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>119.7571625941458</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>118.5904960282507</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P24" t="n">
-        <v>81.43885522818063</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>137.0441979461647</v>
       </c>
       <c r="K26" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L26" t="n">
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889301</v>
+        <v>18.70901417889188</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73793381557206</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,19 +36756,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>168.7567533349472</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.47407004470769</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5501012964434</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L29" t="n">
         <v>261.7964721988196</v>
@@ -36853,7 +36853,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889298</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.13872264411032</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>13.23803402602226</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>60.37675667013261</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
         <v>290.9124617818881</v>
@@ -37084,13 +37084,13 @@
         <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R32" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889304</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13872264411038</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.21149110781757</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1325457170168</v>
+        <v>131.4387337129773</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.65640174788865</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.70573968561423</v>
+        <v>9.705739685614258</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176654</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688262</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L35" t="n">
-        <v>297.1870989214811</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M35" t="n">
-        <v>198.9585863715321</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560538</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O35" t="n">
-        <v>284.6745487731815</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
-        <v>234.752970770605</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>10.84797001196508</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.09964090155462</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727213</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>84.01651007196303</v>
+        <v>80.81431446746836</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.20219560449442</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.712628651176768</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4348246688262</v>
+        <v>172.4348246688263</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191055</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253689</v>
+        <v>220.0938170346361</v>
       </c>
       <c r="M38" t="n">
-        <v>83.5514789678414</v>
+        <v>328.21645626497</v>
       </c>
       <c r="N38" t="n">
         <v>77.99187771560538</v>
       </c>
       <c r="O38" t="n">
-        <v>199.3138838367661</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P38" t="n">
-        <v>234.752970770605</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.7512428595669</v>
+        <v>159.751242859567</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155451</v>
+        <v>54.09964090155462</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727213</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37692,16 +37692,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>82.52934936677195</v>
       </c>
       <c r="I40" t="n">
-        <v>83.60211783047903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.487160705190824</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4143922414839943</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>153.3543373699192</v>
       </c>
       <c r="L41" t="n">
         <v>289.4744702703044</v>
@@ -37789,25 +37789,25 @@
         <v>324.150061105609</v>
       </c>
       <c r="N41" t="n">
-        <v>77.99187771560538</v>
+        <v>318.5904598533729</v>
       </c>
       <c r="O41" t="n">
         <v>276.9619201220049</v>
       </c>
       <c r="P41" t="n">
-        <v>182.8437112396595</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037788</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585937</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T41" t="n">
-        <v>18.1793895760955</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>44.87185848802156</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>104.3569756867325</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.38373775709907</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.243914006445282</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.85746543516671</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176495</v>
+        <v>164.7221960176496</v>
       </c>
       <c r="K44" t="n">
         <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4744702703044</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M44" t="n">
         <v>83.5514789678414</v>
@@ -38029,22 +38029,22 @@
         <v>318.590459853373</v>
       </c>
       <c r="O44" t="n">
-        <v>36.36333798423735</v>
+        <v>72.53891778534465</v>
       </c>
       <c r="P44" t="n">
-        <v>95.88722289734557</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083903</v>
+        <v>152.0386142083904</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38701225037794</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.32463084585943</v>
       </c>
       <c r="T44" t="n">
-        <v>18.1793895760955</v>
+        <v>18.17938957609556</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3569756867325</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>104.3569756867323</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
